--- a/data/original/pesticides.xlsx
+++ b/data/original/pesticides.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_020ADD79FD29FEF51DEAC8480171DB976541EBF9" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD5EFE23-0A65-4F5B-8C71-2A7A405C5589}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pesti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -943,8 +945,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1120,7 +1122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1172,7 +1174,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1366,29 +1368,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="1010" width="8.85546875" customWidth="1"/>
-    <col min="1011" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="1010" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2822,7 +2823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="13">
       <c r="A73" s="1" t="s">
         <v>202</v>
       </c>
@@ -3447,9 +3448,7 @@
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="1">
-        <v>99</v>
-      </c>
+      <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
         <v>259</v>
       </c>
@@ -3684,13 +3683,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3826,22 +3833,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1EA70FC-77DD-420C-8B9E-8C02F9C1A399}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF24F7BD-3071-4B15-87B9-78ED242DBF0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9A2A93-3F56-4ADA-8C27-CD0447B19557}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A9A2A93-3F56-4ADA-8C27-CD0447B19557}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ecdb7145-49fd-4594-9b49-c2a94d472bf0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF24F7BD-3071-4B15-87B9-78ED242DBF0A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1EA70FC-77DD-420C-8B9E-8C02F9C1A399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>